--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Has2-Cd44.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Has2-Cd44.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.665544171172718</v>
+        <v>0.881601</v>
       </c>
       <c r="H2">
-        <v>0.665544171172718</v>
+        <v>2.644803</v>
       </c>
       <c r="I2">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875441</v>
       </c>
       <c r="J2">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875442</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N2">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P2">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q2">
-        <v>14.8691096187993</v>
+        <v>19.699182449849</v>
       </c>
       <c r="R2">
-        <v>14.8691096187993</v>
+        <v>177.292642048641</v>
       </c>
       <c r="S2">
-        <v>0.0005441209899310091</v>
+        <v>0.000656032315300408</v>
       </c>
       <c r="T2">
-        <v>0.0005441209899310091</v>
+        <v>0.0006560323153004081</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.665544171172718</v>
+        <v>0.881601</v>
       </c>
       <c r="H3">
-        <v>0.665544171172718</v>
+        <v>2.644803</v>
       </c>
       <c r="I3">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875441</v>
       </c>
       <c r="J3">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875442</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N3">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P3">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q3">
-        <v>61.04410668939931</v>
+        <v>81.50148284286399</v>
       </c>
       <c r="R3">
-        <v>61.04410668939931</v>
+        <v>733.5133455857759</v>
       </c>
       <c r="S3">
-        <v>0.00223385129391307</v>
+        <v>0.002714204339491785</v>
       </c>
       <c r="T3">
-        <v>0.00223385129391307</v>
+        <v>0.002714204339491785</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.665544171172718</v>
+        <v>0.881601</v>
       </c>
       <c r="H4">
-        <v>0.665544171172718</v>
+        <v>2.644803</v>
       </c>
       <c r="I4">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875441</v>
       </c>
       <c r="J4">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875442</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N4">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P4">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q4">
-        <v>162.28896180372</v>
+        <v>215.07945295662</v>
       </c>
       <c r="R4">
-        <v>162.28896180372</v>
+        <v>1935.71507660958</v>
       </c>
       <c r="S4">
-        <v>0.005938810918433902</v>
+        <v>0.007162686667626564</v>
       </c>
       <c r="T4">
-        <v>0.005938810918433902</v>
+        <v>0.007162686667626565</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.665544171172718</v>
+        <v>0.881601</v>
       </c>
       <c r="H5">
-        <v>0.665544171172718</v>
+        <v>2.644803</v>
       </c>
       <c r="I5">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875441</v>
       </c>
       <c r="J5">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875442</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N5">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P5">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q5">
-        <v>161.5962460249571</v>
+        <v>248.244480025843</v>
       </c>
       <c r="R5">
-        <v>161.5962460249571</v>
+        <v>2234.200320232587</v>
       </c>
       <c r="S5">
-        <v>0.005913461640303303</v>
+        <v>0.008267165472806108</v>
       </c>
       <c r="T5">
-        <v>0.005913461640303303</v>
+        <v>0.008267165472806108</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.665544171172718</v>
+        <v>0.881601</v>
       </c>
       <c r="H6">
-        <v>0.665544171172718</v>
+        <v>2.644803</v>
       </c>
       <c r="I6">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875441</v>
       </c>
       <c r="J6">
-        <v>0.01604812828353153</v>
+        <v>0.02072192623875442</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N6">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P6">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q6">
-        <v>38.74628014780818</v>
+        <v>57.708478006459</v>
       </c>
       <c r="R6">
-        <v>38.74628014780818</v>
+        <v>519.376302058131</v>
       </c>
       <c r="S6">
-        <v>0.001417883440950249</v>
+        <v>0.00192183744352955</v>
       </c>
       <c r="T6">
-        <v>0.001417883440950249</v>
+        <v>0.00192183744352955</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>37.0881398886308</v>
+        <v>37.27504099999999</v>
       </c>
       <c r="H7">
-        <v>37.0881398886308</v>
+        <v>111.825123</v>
       </c>
       <c r="I7">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346173</v>
       </c>
       <c r="J7">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346174</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N7">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P7">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q7">
-        <v>828.5965702166756</v>
+        <v>832.9026776110754</v>
       </c>
       <c r="R7">
-        <v>828.5965702166756</v>
+        <v>7496.12409849968</v>
       </c>
       <c r="S7">
-        <v>0.03032170705566051</v>
+        <v>0.02773775375725259</v>
       </c>
       <c r="T7">
-        <v>0.03032170705566051</v>
+        <v>0.02773775375725259</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>37.0881398886308</v>
+        <v>37.27504099999999</v>
       </c>
       <c r="H8">
-        <v>37.0881398886308</v>
+        <v>111.825123</v>
       </c>
       <c r="I8">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346173</v>
       </c>
       <c r="J8">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346174</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N8">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P8">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q8">
-        <v>3401.746219614028</v>
+        <v>3445.970585932357</v>
       </c>
       <c r="R8">
-        <v>3401.746219614028</v>
+        <v>31013.73527339121</v>
       </c>
       <c r="S8">
-        <v>0.124483682477547</v>
+        <v>0.1147594864762338</v>
       </c>
       <c r="T8">
-        <v>0.124483682477547</v>
+        <v>0.1147594864762338</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>37.0881398886308</v>
+        <v>37.27504099999999</v>
       </c>
       <c r="H9">
-        <v>37.0881398886308</v>
+        <v>111.825123</v>
       </c>
       <c r="I9">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346173</v>
       </c>
       <c r="J9">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346174</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N9">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P9">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q9">
-        <v>9043.720880540945</v>
+        <v>9093.791213049419</v>
       </c>
       <c r="R9">
-        <v>9043.720880540945</v>
+        <v>81844.12091744477</v>
       </c>
       <c r="S9">
-        <v>0.3309464039432539</v>
+        <v>0.3028461165605909</v>
       </c>
       <c r="T9">
-        <v>0.3309464039432539</v>
+        <v>0.302846116560591</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.0881398886308</v>
+        <v>37.27504099999999</v>
       </c>
       <c r="H10">
-        <v>37.0881398886308</v>
+        <v>111.825123</v>
       </c>
       <c r="I10">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346173</v>
       </c>
       <c r="J10">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346174</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N10">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P10">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q10">
-        <v>9005.11857461052</v>
+        <v>10496.04432275709</v>
       </c>
       <c r="R10">
-        <v>9005.11857461052</v>
+        <v>94464.39890481386</v>
       </c>
       <c r="S10">
-        <v>0.3295337891024886</v>
+        <v>0.3495446715153818</v>
       </c>
       <c r="T10">
-        <v>0.3295337891024886</v>
+        <v>0.3495446715153818</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.0881398886308</v>
+        <v>37.27504099999999</v>
       </c>
       <c r="H11">
-        <v>37.0881398886308</v>
+        <v>111.825123</v>
       </c>
       <c r="I11">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346173</v>
       </c>
       <c r="J11">
-        <v>0.8942986093342983</v>
+        <v>0.8761453879346174</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N11">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P11">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q11">
-        <v>2159.176686580971</v>
+        <v>2439.976683032752</v>
       </c>
       <c r="R11">
-        <v>2159.176686580971</v>
+        <v>21959.79014729477</v>
       </c>
       <c r="S11">
-        <v>0.07901302675534819</v>
+        <v>0.08125735962515827</v>
       </c>
       <c r="T11">
-        <v>0.07901302675534819</v>
+        <v>0.08125735962515827</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.71807884077688</v>
+        <v>4.387713666666667</v>
       </c>
       <c r="H12">
-        <v>3.71807884077688</v>
+        <v>13.163141</v>
       </c>
       <c r="I12">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="J12">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>22.3412814097662</v>
+        <v>22.34478233333333</v>
       </c>
       <c r="N12">
-        <v>22.3412814097662</v>
+        <v>67.034347</v>
       </c>
       <c r="O12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="P12">
-        <v>0.03390557330535436</v>
+        <v>0.03165884810812076</v>
       </c>
       <c r="Q12">
-        <v>83.06664568549357</v>
+        <v>98.04250682265854</v>
       </c>
       <c r="R12">
-        <v>83.06664568549357</v>
+        <v>882.382561403927</v>
       </c>
       <c r="S12">
-        <v>0.003039745259762835</v>
+        <v>0.003265062035567764</v>
       </c>
       <c r="T12">
-        <v>0.003039745259762835</v>
+        <v>0.003265062035567764</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.71807884077688</v>
+        <v>4.387713666666667</v>
       </c>
       <c r="H13">
-        <v>3.71807884077688</v>
+        <v>13.163141</v>
       </c>
       <c r="I13">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="J13">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>91.7205939642397</v>
+        <v>92.44713066666667</v>
       </c>
       <c r="N13">
-        <v>91.7205939642397</v>
+        <v>277.341392</v>
       </c>
       <c r="O13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="P13">
-        <v>0.1391969988304138</v>
+        <v>0.1309822411400946</v>
       </c>
       <c r="Q13">
-        <v>341.0243996819272</v>
+        <v>405.6315386702524</v>
       </c>
       <c r="R13">
-        <v>341.0243996819272</v>
+        <v>3650.683848032272</v>
       </c>
       <c r="S13">
-        <v>0.01247946505895371</v>
+        <v>0.01350855032436905</v>
       </c>
       <c r="T13">
-        <v>0.01247946505895371</v>
+        <v>0.01350855032436905</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>25</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.71807884077688</v>
+        <v>4.387713666666667</v>
       </c>
       <c r="H14">
-        <v>3.71807884077688</v>
+        <v>13.163141</v>
       </c>
       <c r="I14">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="J14">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>243.844013415007</v>
+        <v>243.96462</v>
       </c>
       <c r="N14">
-        <v>243.844013415007</v>
+        <v>731.89386</v>
       </c>
       <c r="O14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="P14">
-        <v>0.3700625277608395</v>
+        <v>0.3456573768818275</v>
       </c>
       <c r="Q14">
-        <v>906.6312667284511</v>
+        <v>1070.44689735714</v>
       </c>
       <c r="R14">
-        <v>906.6312667284511</v>
+        <v>9634.02207621426</v>
       </c>
       <c r="S14">
-        <v>0.03317731289915164</v>
+        <v>0.03564857365360997</v>
       </c>
       <c r="T14">
-        <v>0.03317731289915164</v>
+        <v>0.03564857365360997</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>26</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.71807884077688</v>
+        <v>4.387713666666667</v>
       </c>
       <c r="H15">
-        <v>3.71807884077688</v>
+        <v>13.163141</v>
       </c>
       <c r="I15">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="J15">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>242.803187262864</v>
+        <v>281.5837096666667</v>
       </c>
       <c r="N15">
-        <v>242.803187262864</v>
+        <v>844.751129</v>
       </c>
       <c r="O15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="P15">
-        <v>0.3684829492777456</v>
+        <v>0.3989573834764815</v>
       </c>
       <c r="Q15">
-        <v>902.761393035241</v>
+        <v>1235.508691215132</v>
       </c>
       <c r="R15">
-        <v>902.761393035241</v>
+        <v>11119.57822093619</v>
       </c>
       <c r="S15">
-        <v>0.03303569853495358</v>
+        <v>0.04114554648829364</v>
       </c>
       <c r="T15">
-        <v>0.03303569853495358</v>
+        <v>0.04114554648829363</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.71807884077688</v>
+        <v>4.387713666666667</v>
       </c>
       <c r="H16">
-        <v>3.71807884077688</v>
+        <v>13.163141</v>
       </c>
       <c r="I16">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="J16">
-        <v>0.08965326238217004</v>
+        <v>0.1031326858266283</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.2174434486227</v>
+        <v>65.45872566666667</v>
       </c>
       <c r="N16">
-        <v>58.2174434486227</v>
+        <v>196.376177</v>
       </c>
       <c r="O16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347572</v>
       </c>
       <c r="P16">
-        <v>0.08835195082564674</v>
+        <v>0.09274415039347571</v>
       </c>
       <c r="Q16">
-        <v>216.4570446504487</v>
+        <v>287.2141452102175</v>
       </c>
       <c r="R16">
-        <v>216.4570446504487</v>
+        <v>2584.927306891957</v>
       </c>
       <c r="S16">
-        <v>0.007921040629348293</v>
+        <v>0.009564953324787897</v>
       </c>
       <c r="T16">
-        <v>0.007921040629348293</v>
+        <v>0.009564953324787897</v>
       </c>
     </row>
   </sheetData>
